--- a/_project/roadmap.xlsx
+++ b/_project/roadmap.xlsx
@@ -37,16 +37,16 @@
     <t>Дизайн уже сделанных страниц</t>
   </si>
   <si>
-    <t>Профиль пользователя, профиль администратора, который может добавлять\изменять информацию о фильмах</t>
-  </si>
-  <si>
-    <t>Каталоги с лучшими фильмами, готовящимся к выходу, новинками</t>
-  </si>
-  <si>
     <t>Бета. Шлифовка уже готовых страниц</t>
   </si>
   <si>
     <t>Доработки, оптимизации</t>
+  </si>
+  <si>
+    <t>Профили пользователей</t>
+  </si>
+  <si>
+    <t>Администратор, который может добавлять\изменять информацию о фильмах</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,19 +599,19 @@
         <v>5</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
